--- a/data/uwf_yr3_analysis_dates.xlsx
+++ b/data/uwf_yr3_analysis_dates.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Seagrass workshop\SRC\WQX files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\wqx-data-upload-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB8031-E64A-4466-8D9D-2B7BA6AE76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD1D078-09F8-4660-97E8-7C2B1B931898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28815" yWindow="1830" windowWidth="14400" windowHeight="15510" xr2:uid="{11D46821-4D73-4E39-90CE-C70DBFE516E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11D46821-4D73-4E39-90CE-C70DBFE516E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$136</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
   <si>
     <t>Analyte</t>
   </si>
@@ -111,13 +114,25 @@
   </si>
   <si>
     <t>TN/TP</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +140,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,16 +175,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B6ABD3C4-2763-435D-9037-444FE9298413}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,26 +519,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}">
-  <dimension ref="A1:E93"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B140" sqref="B140:B141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -513,18 +552,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C2" s="1">
         <v>45595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -535,7 +574,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -546,7 +585,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -557,7 +596,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -568,7 +607,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -579,7 +618,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -590,7 +629,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -601,7 +640,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -612,7 +651,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -623,7 +662,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -634,7 +673,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -645,7 +684,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -656,7 +695,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -667,18 +706,18 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C16" s="1">
         <v>45771</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -689,18 +728,18 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C18" s="1">
         <v>45771</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -711,18 +750,18 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C20" s="1">
         <v>45770</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -733,18 +772,18 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C22" s="1">
         <v>45770</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -755,7 +794,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -766,7 +805,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -777,7 +816,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -788,7 +827,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -799,7 +838,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -810,62 +849,62 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="2">
-        <v>45839</v>
+      <c r="B29" s="1">
+        <v>45861</v>
       </c>
       <c r="C29" s="1">
         <v>45897</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2">
-        <v>45839</v>
+      <c r="B30" s="1">
+        <v>45861</v>
       </c>
       <c r="C30" s="1">
         <v>45897</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="2">
-        <v>45839</v>
+      <c r="B31" s="1">
+        <v>45861</v>
       </c>
       <c r="C31" s="1">
         <v>45897</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
-        <v>45839</v>
+      <c r="B32" s="1">
+        <v>45861</v>
       </c>
       <c r="C32" s="1">
         <v>45897</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C33" s="1">
         <v>45912</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -876,23 +915,23 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="2">
-        <v>45839</v>
+      <c r="B35" s="1">
+        <v>45861</v>
       </c>
       <c r="C35" s="1">
         <v>45912</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="1">
-        <v>45580</v>
+        <v>45861</v>
       </c>
       <c r="C36" s="1">
         <v>45581</v>
@@ -904,12 +943,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="1">
-        <v>45580</v>
+        <v>45861</v>
       </c>
       <c r="C37" s="1">
         <v>45581</v>
@@ -921,15 +960,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="1">
-        <v>45580</v>
+        <v>45861</v>
       </c>
       <c r="C38" s="1">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -938,15 +977,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C39" s="1">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -955,15 +994,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C40" s="1">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -972,15 +1011,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C41" s="1">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -989,15 +1028,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C42" s="1">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -1006,12 +1045,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C43" s="1">
         <v>45593</v>
@@ -1023,12 +1062,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C44" s="1">
         <v>45593</v>
@@ -1040,12 +1079,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C45" s="1">
         <v>45593</v>
@@ -1057,12 +1096,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C46" s="1">
         <v>45593</v>
@@ -1074,12 +1113,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C47" s="1">
         <v>45593</v>
@@ -1091,12 +1130,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C48" s="1">
         <v>45593</v>
@@ -1108,12 +1147,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C49" s="1">
         <v>45593</v>
@@ -1125,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1329,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +1504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1652,7 +1691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1669,12 +1708,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="C82" s="1">
         <v>45869</v>
@@ -1686,12 +1725,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="C83" s="1">
         <v>45869</v>
@@ -1703,7 +1742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1720,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1737,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -1754,7 +1793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -1788,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +1844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1872,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1883,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +1894,690 @@
         <v>45869</v>
       </c>
     </row>
+    <row r="94" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45582</v>
+      </c>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45582</v>
+      </c>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45580</v>
+      </c>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45580</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45580</v>
+      </c>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45861</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C138" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45912</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B136" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/uwf_yr3_analysis_dates.xlsx
+++ b/data/uwf_yr3_analysis_dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\wqx-data-upload-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD1D078-09F8-4660-97E8-7C2B1B931898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F4410-5614-4180-BA69-409A4CBB4533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11D46821-4D73-4E39-90CE-C70DBFE516E7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="29">
   <si>
     <t>Analyte</t>
   </si>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,25 +145,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,19 +163,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6ABD3C4-2763-435D-9037-444FE9298413}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{95198F50-8C42-4622-B773-6BFE399EC950}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,11 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140:B141"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +520,8 @@
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="19" max="24" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -563,7 +552,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -574,7 +563,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -585,7 +574,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -596,7 +585,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -607,7 +596,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -618,7 +607,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -629,7 +618,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -640,7 +629,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -651,7 +640,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -662,7 +651,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -673,7 +662,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -684,7 +673,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -695,7 +684,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -706,7 +695,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -717,7 +706,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -728,7 +717,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -739,7 +728,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -750,7 +739,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -761,7 +750,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -772,7 +761,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -783,7 +772,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -794,7 +783,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -805,7 +794,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -816,7 +805,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -827,7 +816,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -838,7 +827,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -893,7 +882,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -904,7 +893,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -926,7 +915,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -943,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -960,7 +949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -977,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -994,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1334,7 +1323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1351,7 +1340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1861,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -1894,165 +1883,197 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="3">
-        <v>45582</v>
-      </c>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="1">
-        <v>45582</v>
+        <v>45580</v>
       </c>
       <c r="C95" s="1">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="3">
-        <v>45582</v>
-      </c>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="3">
         <v>45580</v>
       </c>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
       <c r="B98" s="1">
-        <v>45580</v>
+        <v>45768</v>
       </c>
       <c r="C98" s="1">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" s="3">
-        <v>45580</v>
-      </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B100" s="1">
-        <v>45670</v>
+        <v>45861</v>
       </c>
       <c r="C100" s="1">
-        <v>45670</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
       <c r="B101" s="1">
-        <v>45671</v>
+        <v>45862</v>
       </c>
       <c r="C101" s="1">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" s="1">
-        <v>45768</v>
+        <v>45670</v>
       </c>
       <c r="C102" s="1">
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45687</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B103" s="1">
-        <v>45769</v>
+        <v>45670</v>
       </c>
       <c r="C103" s="1">
-        <v>45769</v>
+        <v>45687</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104" s="1">
-        <v>45861</v>
+        <v>45671</v>
       </c>
       <c r="C104" s="1">
-        <v>45861</v>
+        <v>45689</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1">
-        <v>45862</v>
+        <v>45671</v>
       </c>
       <c r="C105" s="1">
-        <v>45862</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45689</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
       <c r="B106" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="C106" s="1">
         <v>45687</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
       <c r="B107" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="C107" s="1">
         <v>45687</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -2060,16 +2081,16 @@
         <v>45671</v>
       </c>
       <c r="C108" s="1">
-        <v>45689</v>
+        <v>45687</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -2077,16 +2098,16 @@
         <v>45671</v>
       </c>
       <c r="C109" s="1">
-        <v>45689</v>
+        <v>45687</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2097,13 +2118,13 @@
         <v>45687</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -2114,13 +2135,13 @@
         <v>45687</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -2128,16 +2149,16 @@
         <v>45671</v>
       </c>
       <c r="C112" s="1">
-        <v>45687</v>
+        <v>45689</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -2148,13 +2169,13 @@
         <v>45687</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -2162,16 +2183,16 @@
         <v>45671</v>
       </c>
       <c r="C114" s="1">
-        <v>45687</v>
+        <v>45689</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -2182,13 +2203,13 @@
         <v>45687</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -2199,13 +2220,13 @@
         <v>45689</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -2216,13 +2237,13 @@
         <v>45687</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -2233,13 +2254,13 @@
         <v>45689</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -2250,13 +2271,13 @@
         <v>45687</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -2267,13 +2288,13 @@
         <v>45689</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -2284,13 +2305,13 @@
         <v>45687</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -2301,13 +2322,13 @@
         <v>45689</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -2318,13 +2339,13 @@
         <v>45687</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -2335,13 +2356,13 @@
         <v>45689</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -2349,16 +2370,16 @@
         <v>45671</v>
       </c>
       <c r="C125" s="1">
-        <v>45687</v>
+        <v>45689</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -2369,13 +2390,13 @@
         <v>45689</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -2383,201 +2404,603 @@
         <v>45671</v>
       </c>
       <c r="C127" s="1">
-        <v>45687</v>
+        <v>45689</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B128" s="1">
-        <v>45671</v>
+        <v>45768</v>
       </c>
       <c r="C128" s="1">
-        <v>45689</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B129" s="1">
-        <v>45671</v>
+        <v>45768</v>
       </c>
       <c r="C129" s="1">
-        <v>45689</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1">
-        <v>45671</v>
+        <v>45768</v>
       </c>
       <c r="C130" s="1">
-        <v>45689</v>
-      </c>
-      <c r="D130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1">
-        <v>45671</v>
+        <v>45768</v>
       </c>
       <c r="C131" s="1">
-        <v>45689</v>
-      </c>
-      <c r="D131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B132" s="1">
         <v>45768</v>
       </c>
       <c r="C132" s="1">
-        <v>45806</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="1">
-        <v>45768</v>
-      </c>
-      <c r="C133" s="1">
-        <v>45806</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="1">
-        <v>45768</v>
-      </c>
-      <c r="C134" s="1">
-        <v>45806</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="1">
-        <v>45768</v>
-      </c>
-      <c r="C135" s="1">
-        <v>45806</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
       <c r="B136" s="1">
-        <v>45768</v>
+        <v>45862</v>
       </c>
       <c r="C136" s="1">
-        <v>45835</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B137" s="1">
         <v>45862</v>
       </c>
       <c r="C137" s="1">
-        <v>45897</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B138" s="1">
-        <v>45862</v>
+        <v>45580</v>
       </c>
       <c r="C138" s="1">
-        <v>45897</v>
+        <v>45602</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B139" s="1">
-        <v>45862</v>
+        <v>45580</v>
       </c>
       <c r="C139" s="1">
-        <v>45897</v>
+        <v>45609</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B140" s="1">
-        <v>45862</v>
+        <v>45580</v>
       </c>
       <c r="C140" s="1">
-        <v>45897</v>
+        <v>45602</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B141" s="1">
-        <v>45862</v>
+        <v>45580</v>
       </c>
       <c r="C141" s="1">
-        <v>45912</v>
+        <v>45609</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45609</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45582</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45603</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B136" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B165" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/uwf_yr3_analysis_dates.xlsx
+++ b/data/uwf_yr3_analysis_dates.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\wqx-data-upload-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F165B9-2A82-4D4E-9892-36CB036E5548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95239D86-1FA8-4CB8-B67F-88B365D856F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11D46821-4D73-4E39-90CE-C70DBFE516E7}"/>
+    <workbookView xWindow="3555" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{11D46821-4D73-4E39-90CE-C70DBFE516E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="28">
   <si>
     <t>Analyte</t>
   </si>
@@ -165,10 +165,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,11 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -551,7 +549,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -562,7 +560,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -573,7 +571,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -584,7 +582,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -595,7 +593,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -606,7 +604,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -617,7 +615,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -634,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -651,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -668,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -685,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -696,7 +694,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -707,7 +705,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -718,7 +716,7 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -729,7 +727,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -740,7 +738,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -751,8 +749,8 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1">
@@ -761,15 +759,15 @@
       <c r="C19" s="1">
         <v>45593</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1">
@@ -778,14 +776,14 @@
       <c r="C20" s="1">
         <v>45593</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -802,8 +800,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -812,14 +810,14 @@
       <c r="C22" s="1">
         <v>45593</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -836,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -853,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -870,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -887,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -904,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -921,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -938,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -955,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -972,7 +970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -989,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1340,7 +1338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1357,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1417,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1463,7 +1461,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +1472,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1545,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1556,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -1834,7 +1832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -1868,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -1885,7 +1883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -1953,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -1970,7 +1968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -2106,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2225,7 +2223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -2259,8 +2257,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>27</v>
       </c>
       <c r="B113" s="1">
@@ -2270,7 +2268,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -2281,7 +2279,7 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2323,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +2334,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2345,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2367,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2378,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -2544,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -2595,8 +2593,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>27</v>
       </c>
       <c r="B137" s="1">
@@ -2606,7 +2604,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -2663,47 +2661,35 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B143" s="1">
         <v>45861</v>
       </c>
       <c r="C143" s="1">
-        <v>45912</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="C144" s="1">
-        <v>45593</v>
-      </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145" s="1">
         <v>45861</v>
       </c>
       <c r="C145" s="1">
-        <v>45862</v>
-      </c>
-      <c r="D145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" t="s">
-        <v>11</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,10 +2700,10 @@
         <v>45861</v>
       </c>
       <c r="C146" s="1">
-        <v>45862</v>
+        <v>45593</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -2734,7 +2720,7 @@
         <v>45862</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -2751,10 +2737,10 @@
         <v>45862</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,10 +2751,10 @@
         <v>45861</v>
       </c>
       <c r="C149" s="1">
-        <v>45869</v>
+        <v>45862</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -2782,10 +2768,10 @@
         <v>45861</v>
       </c>
       <c r="C150" s="1">
-        <v>45869</v>
+        <v>45862</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
@@ -2802,7 +2788,7 @@
         <v>45869</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -2819,7 +2805,7 @@
         <v>45869</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
         <v>12</v>
@@ -2836,7 +2822,7 @@
         <v>45869</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -2853,7 +2839,7 @@
         <v>45869</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E154" t="s">
         <v>12</v>
@@ -2870,7 +2856,7 @@
         <v>45869</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -2887,15 +2873,15 @@
         <v>45869</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>9</v>
       </c>
       <c r="B157" s="1">
         <v>45861</v>
@@ -2903,88 +2889,100 @@
       <c r="C157" s="1">
         <v>45869</v>
       </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B158" s="1">
         <v>45861</v>
       </c>
       <c r="C158" s="1">
-        <v>45861</v>
+        <v>45869</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B159" s="1">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="C159" s="1">
         <v>45869</v>
       </c>
-      <c r="D159" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B160" s="1">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="C160" s="1">
-        <v>45869</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>12</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B161" s="1">
         <v>45862</v>
       </c>
       <c r="C161" s="1">
-        <v>45862</v>
+        <v>45869</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B162" s="1">
         <v>45862</v>
       </c>
       <c r="C162" s="1">
-        <v>45897</v>
+        <v>45869</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B163" s="1">
         <v>45862</v>
       </c>
       <c r="C163" s="1">
-        <v>45897</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1">
         <v>45862</v>
@@ -2995,7 +2993,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B165" s="1">
         <v>45862</v>
@@ -3006,96 +3004,84 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1">
         <v>45862</v>
       </c>
       <c r="C166" s="1">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>27</v>
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
       </c>
       <c r="B167" s="1">
         <v>45862</v>
       </c>
       <c r="C167" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C169" s="1">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="1">
         <v>45768</v>
-      </c>
-      <c r="C168" s="1">
-        <v>45838</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B169" s="1">
-        <v>45768</v>
-      </c>
-      <c r="C169" s="1">
-        <v>45838</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B170" s="1">
-        <v>45769</v>
       </c>
       <c r="C170" s="1">
         <v>45838</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>25</v>
       </c>
       <c r="B171" s="1">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="C171" s="1">
         <v>45838</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>25</v>
       </c>
       <c r="B172" s="1">
@@ -3104,15 +3090,15 @@
       <c r="C172" s="1">
         <v>45838</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>25</v>
       </c>
       <c r="B173" s="1">
@@ -3121,15 +3107,15 @@
       <c r="C173" s="1">
         <v>45838</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>25</v>
       </c>
       <c r="B174" s="1">
@@ -3138,15 +3124,15 @@
       <c r="C174" s="1">
         <v>45838</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>25</v>
       </c>
       <c r="B175" s="1">
@@ -3155,15 +3141,15 @@
       <c r="C175" s="1">
         <v>45838</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>25</v>
       </c>
       <c r="B176" s="1">
@@ -3172,15 +3158,15 @@
       <c r="C176" s="1">
         <v>45838</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>25</v>
       </c>
       <c r="B177" s="1">
@@ -3189,15 +3175,15 @@
       <c r="C177" s="1">
         <v>45838</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="D177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>25</v>
       </c>
       <c r="B178" s="1">
@@ -3206,15 +3192,15 @@
       <c r="C178" s="1">
         <v>45838</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>25</v>
       </c>
       <c r="B179" s="1">
@@ -3223,15 +3209,15 @@
       <c r="C179" s="1">
         <v>45838</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>25</v>
       </c>
       <c r="B180" s="1">
@@ -3240,15 +3226,15 @@
       <c r="C180" s="1">
         <v>45838</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>25</v>
       </c>
       <c r="B181" s="1">
@@ -3257,83 +3243,83 @@
       <c r="C181" s="1">
         <v>45838</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C182" s="1">
+        <v>45838</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45838</v>
+      </c>
+      <c r="D183" t="s">
         <v>19</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B182" s="1">
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184" s="1">
         <v>45862</v>
-      </c>
-      <c r="C182" s="1">
-        <v>45869</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B183" s="1">
-        <v>45862</v>
-      </c>
-      <c r="C183" s="1">
-        <v>45869</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B184" s="1">
-        <v>45861</v>
       </c>
       <c r="C184" s="1">
         <v>45869</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>25</v>
       </c>
       <c r="B185" s="1">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="C185" s="1">
         <v>45869</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" s="2" t="s">
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>25</v>
       </c>
       <c r="B186" s="1">
@@ -3342,15 +3328,15 @@
       <c r="C186" s="1">
         <v>45869</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>25</v>
       </c>
       <c r="B187" s="1">
@@ -3359,15 +3345,15 @@
       <c r="C187" s="1">
         <v>45869</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" t="s">
         <v>25</v>
       </c>
       <c r="B188" s="1">
@@ -3376,15 +3362,15 @@
       <c r="C188" s="1">
         <v>45869</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="2" t="s">
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" t="s">
         <v>25</v>
       </c>
       <c r="B189" s="1">
@@ -3393,15 +3379,15 @@
       <c r="C189" s="1">
         <v>45869</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>25</v>
       </c>
       <c r="B190" s="1">
@@ -3410,15 +3396,15 @@
       <c r="C190" s="1">
         <v>45869</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190" s="2" t="s">
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>25</v>
       </c>
       <c r="B191" s="1">
@@ -3427,15 +3413,15 @@
       <c r="C191" s="1">
         <v>45869</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>25</v>
       </c>
       <c r="B192" s="1">
@@ -3444,15 +3430,15 @@
       <c r="C192" s="1">
         <v>45869</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>25</v>
       </c>
       <c r="B193" s="1">
@@ -3461,15 +3447,15 @@
       <c r="C193" s="1">
         <v>45869</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>11</v>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>25</v>
       </c>
       <c r="B194" s="1">
@@ -3478,15 +3464,15 @@
       <c r="C194" s="1">
         <v>45869</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="2" t="s">
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>25</v>
       </c>
       <c r="B195" s="1">
@@ -3495,23 +3481,73 @@
       <c r="C195" s="1">
         <v>45869</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>25</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45861</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45869</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45861</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45869</v>
+      </c>
+      <c r="D197" t="s">
         <v>19</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>11</v>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45814</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E195" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E166">
-    <sortCondition ref="B1:B166"/>
+  <autoFilter ref="A1:E197" xr:uid="{89A68A17-021F-4C89-9F43-C50D4EDC1708}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E168">
+    <sortCondition ref="B1:B168"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
